--- a/Exp_design.xlsx
+++ b/Exp_design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>A;1;phenol;1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>F;2;phenol;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +666,7 @@
   <dimension ref="B1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,18 +679,42 @@
   <sheetData>
     <row r="1" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="2:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -917,18 +945,42 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
